--- a/Preliminary Analysis.xlsx
+++ b/Preliminary Analysis.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steve/Dropbox/Classes/Junior Design/Jr_Design_2020_Spring/Modules/Actuators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven_lammers/Documents/OneDrive - The University of Colorado Denver/Bioe_3090_2020_Shared/Modules/Actuators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D1F34-F164-424B-A9A2-01C2481CB6AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{6C0D1F34-F164-424B-A9A2-01C2481CB6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FD3C9C7-30DE-1D48-8635-DED3E2601DE3}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="4740" windowWidth="27640" windowHeight="16940" xr2:uid="{076C39C8-DC9F-B640-B0CB-66585E98FCEF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{076C39C8-DC9F-B640-B0CB-66585E98FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,25 +448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DDB5B-5010-054B-82AB-D18863B21F6F}">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -466,7 +474,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -474,7 +482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -483,7 +491,7 @@
         <v>3.9754098360655736</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -496,8 +504,11 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>32</v>
       </c>
@@ -515,13 +526,24 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>48-M7</f>
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <f>M8/M7</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>32</v>
       </c>
@@ -532,8 +554,16 @@
         <f>C10/C9</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f>48-M9</f>
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <f>M10/M9</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -541,8 +571,12 @@
         <f>E10+E8</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f>N10+N8</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -561,12 +595,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -577,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>

--- a/Preliminary Analysis.xlsx
+++ b/Preliminary Analysis.xlsx
@@ -643,4 +643,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9BF84A702702F4EB4B48EE280548CFE" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b242937bcecc56194f4fffb5ac2e41d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b0f637-917a-42ca-929f-3d4d619c5162" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef1e58c37fb5d90aebc5e3fb191b0bcc" ns2:_="">
+    <xsd:import namespace="01b0f637-917a-42ca-929f-3d4d619c5162"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01b0f637-917a-42ca-929f-3d4d619c5162" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D222409A-2E8D-43CA-BCEB-84F93972C283}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5C6DAA0-9840-4748-8BE8-473702EF5C13}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1C25F0-A757-466E-BB31-AE50F928792D}"/>
 </file>